--- a/UnityBasic2/Assets/Data/Data.xlsx
+++ b/UnityBasic2/Assets/Data/Data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Project\ProjectBS\ProjectBS\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\UnityBasic2\UnityBasic2\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5624E0-82EA-45F1-8ED0-E4766F84D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Dialogue" sheetId="2" r:id="rId2"/>
+    <sheet name="Character" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,36 +26,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbno</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>spring_classroom</t>
+  </si>
+  <si>
+    <t>아린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arin_angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arin_sad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arin_curious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arin_smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arin_tired</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아린_화난표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아린_슬픈표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아린_궁금한표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아린_웃는표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아린_지친표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니티가 너무 어려워도 괜찮아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True_end</t>
+  </si>
+  <si>
+    <t>왜냐하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해줄테니까</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -77,10 +172,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -99,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -144,9 +246,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -179,9 +281,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -360,29 +462,254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="57.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10103</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10103</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10102</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>10101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10105</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
